--- a/yunwei-network.xlsx
+++ b/yunwei-network.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="300">
   <si>
     <t>物理主机IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,494 @@
   </si>
   <si>
     <t>vip nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunwei1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunwei2</t>
+  </si>
+  <si>
+    <t>yunwei3</t>
+  </si>
+  <si>
+    <t>yunwei4</t>
+  </si>
+  <si>
+    <t>yunwei5</t>
+  </si>
+  <si>
+    <t>yunwei6</t>
+  </si>
+  <si>
+    <t>yunwei7</t>
+  </si>
+  <si>
+    <t>kvm110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvm111</t>
+  </si>
+  <si>
+    <t>kvm112</t>
+  </si>
+  <si>
+    <t>kvm113</t>
+  </si>
+  <si>
+    <t>kvm114</t>
+  </si>
+  <si>
+    <t>kvm115</t>
+  </si>
+  <si>
+    <t>kvm116</t>
+  </si>
+  <si>
+    <t>kvm117</t>
+  </si>
+  <si>
+    <t>kvm118</t>
+  </si>
+  <si>
+    <t>kvm119</t>
+  </si>
+  <si>
+    <t>kvm120</t>
+  </si>
+  <si>
+    <t>kvm121</t>
+  </si>
+  <si>
+    <t>kvm122</t>
+  </si>
+  <si>
+    <t>kvm123</t>
+  </si>
+  <si>
+    <t>kvm124</t>
+  </si>
+  <si>
+    <t>kvm125</t>
+  </si>
+  <si>
+    <t>kvm126</t>
+  </si>
+  <si>
+    <t>kvm127</t>
+  </si>
+  <si>
+    <t>kvm128</t>
+  </si>
+  <si>
+    <t>kvm129</t>
+  </si>
+  <si>
+    <t>kvm130</t>
+  </si>
+  <si>
+    <t>kvm131</t>
+  </si>
+  <si>
+    <t>kvm132</t>
+  </si>
+  <si>
+    <t>kvm133</t>
+  </si>
+  <si>
+    <t>kvm134</t>
+  </si>
+  <si>
+    <t>kvm135</t>
+  </si>
+  <si>
+    <t>kvm136</t>
+  </si>
+  <si>
+    <t>kvm137</t>
+  </si>
+  <si>
+    <t>kvm138</t>
+  </si>
+  <si>
+    <t>kvm139</t>
+  </si>
+  <si>
+    <t>kvm140</t>
+  </si>
+  <si>
+    <t>kvm141</t>
+  </si>
+  <si>
+    <t>kvm142</t>
+  </si>
+  <si>
+    <t>kvm143</t>
+  </si>
+  <si>
+    <t>kvm144</t>
+  </si>
+  <si>
+    <t>kvm145</t>
+  </si>
+  <si>
+    <t>kvm146</t>
+  </si>
+  <si>
+    <t>kvm147</t>
+  </si>
+  <si>
+    <t>kvm148</t>
+  </si>
+  <si>
+    <t>kvm149</t>
+  </si>
+  <si>
+    <t>kvm150</t>
+  </si>
+  <si>
+    <t>kvm151</t>
+  </si>
+  <si>
+    <t>kvm152</t>
+  </si>
+  <si>
+    <t>kvm153</t>
+  </si>
+  <si>
+    <t>kvm154</t>
+  </si>
+  <si>
+    <t>kvm155</t>
+  </si>
+  <si>
+    <t>kvm156</t>
+  </si>
+  <si>
+    <t>kvm157</t>
+  </si>
+  <si>
+    <t>kvm158</t>
+  </si>
+  <si>
+    <t>kvm159</t>
+  </si>
+  <si>
+    <t>kvm160</t>
+  </si>
+  <si>
+    <t>kvm161</t>
+  </si>
+  <si>
+    <t>kvm162</t>
+  </si>
+  <si>
+    <t>kvm163</t>
+  </si>
+  <si>
+    <t>kvm164</t>
+  </si>
+  <si>
+    <t>kvm165</t>
+  </si>
+  <si>
+    <t>kvm166</t>
+  </si>
+  <si>
+    <t>kvm167</t>
+  </si>
+  <si>
+    <t>kvm168</t>
+  </si>
+  <si>
+    <t>kvm169</t>
+  </si>
+  <si>
+    <t>kvm170</t>
+  </si>
+  <si>
+    <t>kvm171</t>
+  </si>
+  <si>
+    <t>kvm172</t>
+  </si>
+  <si>
+    <t>kvm173</t>
+  </si>
+  <si>
+    <t>kvm174</t>
+  </si>
+  <si>
+    <t>kvm175</t>
+  </si>
+  <si>
+    <t>kvm176</t>
+  </si>
+  <si>
+    <t>kvm177</t>
+  </si>
+  <si>
+    <t>kvm178</t>
+  </si>
+  <si>
+    <t>kvm179</t>
+  </si>
+  <si>
+    <t>192.168.254.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.254.110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.254.111</t>
+  </si>
+  <si>
+    <t>192.168.254.112</t>
+  </si>
+  <si>
+    <t>192.168.254.113</t>
+  </si>
+  <si>
+    <t>192.168.254.114</t>
+  </si>
+  <si>
+    <t>192.168.254.115</t>
+  </si>
+  <si>
+    <t>192.168.254.116</t>
+  </si>
+  <si>
+    <t>192.168.254.117</t>
+  </si>
+  <si>
+    <t>192.168.254.118</t>
+  </si>
+  <si>
+    <t>192.168.254.119</t>
+  </si>
+  <si>
+    <t>192.168.254.120</t>
+  </si>
+  <si>
+    <t>192.168.254.121</t>
+  </si>
+  <si>
+    <t>192.168.254.122</t>
+  </si>
+  <si>
+    <t>192.168.254.123</t>
+  </si>
+  <si>
+    <t>192.168.254.124</t>
+  </si>
+  <si>
+    <t>192.168.254.125</t>
+  </si>
+  <si>
+    <t>192.168.254.126</t>
+  </si>
+  <si>
+    <t>192.168.254.127</t>
+  </si>
+  <si>
+    <t>192.168.254.128</t>
+  </si>
+  <si>
+    <t>192.168.254.129</t>
+  </si>
+  <si>
+    <t>192.168.254.130</t>
+  </si>
+  <si>
+    <t>192.168.254.131</t>
+  </si>
+  <si>
+    <t>192.168.254.132</t>
+  </si>
+  <si>
+    <t>192.168.254.133</t>
+  </si>
+  <si>
+    <t>192.168.254.134</t>
+  </si>
+  <si>
+    <t>192.168.254.135</t>
+  </si>
+  <si>
+    <t>192.168.254.136</t>
+  </si>
+  <si>
+    <t>192.168.254.137</t>
+  </si>
+  <si>
+    <t>192.168.254.138</t>
+  </si>
+  <si>
+    <t>192.168.254.139</t>
+  </si>
+  <si>
+    <t>192.168.254.140</t>
+  </si>
+  <si>
+    <t>192.168.254.141</t>
+  </si>
+  <si>
+    <t>192.168.254.142</t>
+  </si>
+  <si>
+    <t>192.168.254.143</t>
+  </si>
+  <si>
+    <t>192.168.254.144</t>
+  </si>
+  <si>
+    <t>192.168.254.145</t>
+  </si>
+  <si>
+    <t>192.168.254.146</t>
+  </si>
+  <si>
+    <t>192.168.254.147</t>
+  </si>
+  <si>
+    <t>192.168.254.148</t>
+  </si>
+  <si>
+    <t>192.168.254.149</t>
+  </si>
+  <si>
+    <t>192.168.254.150</t>
+  </si>
+  <si>
+    <t>192.168.254.151</t>
+  </si>
+  <si>
+    <t>192.168.254.152</t>
+  </si>
+  <si>
+    <t>192.168.254.153</t>
+  </si>
+  <si>
+    <t>192.168.254.154</t>
+  </si>
+  <si>
+    <t>192.168.254.155</t>
+  </si>
+  <si>
+    <t>192.168.254.156</t>
+  </si>
+  <si>
+    <t>192.168.254.157</t>
+  </si>
+  <si>
+    <t>192.168.254.158</t>
+  </si>
+  <si>
+    <t>192.168.254.159</t>
+  </si>
+  <si>
+    <t>192.168.254.160</t>
+  </si>
+  <si>
+    <t>192.168.254.161</t>
+  </si>
+  <si>
+    <t>192.168.254.162</t>
+  </si>
+  <si>
+    <t>192.168.254.163</t>
+  </si>
+  <si>
+    <t>192.168.254.164</t>
+  </si>
+  <si>
+    <t>192.168.254.165</t>
+  </si>
+  <si>
+    <t>192.168.254.166</t>
+  </si>
+  <si>
+    <t>192.168.254.167</t>
+  </si>
+  <si>
+    <t>192.168.254.168</t>
+  </si>
+  <si>
+    <t>192.168.254.169</t>
+  </si>
+  <si>
+    <t>192.168.254.170</t>
+  </si>
+  <si>
+    <t>192.168.254.171</t>
+  </si>
+  <si>
+    <t>192.168.254.172</t>
+  </si>
+  <si>
+    <t>192.168.254.173</t>
+  </si>
+  <si>
+    <t>192.168.254.174</t>
+  </si>
+  <si>
+    <t>192.168.254.175</t>
+  </si>
+  <si>
+    <t>192.168.254.176</t>
+  </si>
+  <si>
+    <t>192.168.254.177</t>
+  </si>
+  <si>
+    <t>192.168.254.178</t>
+  </si>
+  <si>
+    <t>192.168.254.179</t>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.254.211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1578,12 +2066,1125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
+        <v>299</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
